--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1290.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1290.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8381427346792997</v>
+        <v>1.130287289619446</v>
       </c>
       <c r="B1">
-        <v>1.59320371963841</v>
+        <v>2.282751798629761</v>
       </c>
       <c r="C1">
-        <v>5.430582537614669</v>
+        <v>11.00678253173828</v>
       </c>
       <c r="D1">
-        <v>3.504562670440904</v>
+        <v>2.045343637466431</v>
       </c>
       <c r="E1">
-        <v>1.479739861611706</v>
+        <v>1.281050682067871</v>
       </c>
     </row>
   </sheetData>
